--- a/prev_sheets/example_00-00-0000.xlsx
+++ b/prev_sheets/example_00-00-0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dopal\Desktop\lab_graphic_project\prev_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD359E5-C152-429F-9491-B1D6A8AF51C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DACB5F-2521-40AF-87D6-88D19992AEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="538" activeTab="1" xr2:uid="{8BC872A1-ADDA-4203-97AB-B18266E290E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="538" xr2:uid="{8BC872A1-ADDA-4203-97AB-B18266E290E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Mice" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>Mouse ID</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>CAGE_1</t>
+  </si>
+  <si>
+    <t>0/0/0000</t>
   </si>
 </sst>
 </file>
@@ -568,9 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D288F3BE-204A-46EE-B197-DA56EF367A3F}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -588,8 +589,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>36526</v>
+      <c r="A1" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1039,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A29D230-8104-4AD8-AFDD-EF632F2A3945}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,8 +1053,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>36526</v>
+      <c r="A1" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
